--- a/PRUEBAS1.xlsx
+++ b/PRUEBAS1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B74AF8-065D-470E-B2FE-2CA3FD2A4383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6053D9-66E1-4F85-B6E5-78E5F4F16DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2F62B233-492B-4195-9851-BD70FB058E57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>Webpage: https://www.testrail.com/</t>
   </si>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>Test How many users do you expect to access TestRail dropdown - valid</t>
+  </si>
+  <si>
+    <t>1. Click on the How many users do you expect to acces to Test Rail dropdown 
+2. Select 1
+3.Click on Create Account</t>
+  </si>
+  <si>
+    <t>Number of users should be accepted.</t>
   </si>
 </sst>
 </file>
@@ -298,14 +306,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B059AF-5333-4C40-8EA8-AA61BDE14527}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,306 +664,318 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
